--- a/Zadatak 2/STT_Low_level.xlsx
+++ b/Zadatak 2/STT_Low_level.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DT User\Desktop\fask\FM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92133E5A-83A4-4B3D-AFA5-C26AAF327CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DE0BE0-AF54-4961-A618-1D67E3721FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test case 1" sheetId="2" r:id="rId1"/>
     <sheet name="Test case 2" sheetId="3" r:id="rId2"/>
     <sheet name="Test case 3" sheetId="4" r:id="rId3"/>
     <sheet name="Test case 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Test case 5" sheetId="6" r:id="rId5"/>
+    <sheet name="Test case 6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="86">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -251,13 +253,43 @@
   </si>
   <si>
     <t>Results are updated to show all products (unfiltered)</t>
+  </si>
+  <si>
+    <t>STT-TC05</t>
+  </si>
+  <si>
+    <t>6.1.2026.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>State Transition - Filtered before DefaultSearchResults</t>
+  </si>
+  <si>
+    <t>Try to apply filters without searching for a product first</t>
+  </si>
+  <si>
+    <t>Filters are not displayed before searching</t>
+  </si>
+  <si>
+    <t>STT-TC06</t>
+  </si>
+  <si>
+    <t>State Transition - Sorted before DefaultSearchResults</t>
+  </si>
+  <si>
+    <t>Try to apply sorting without searching for a product first</t>
+  </si>
+  <si>
+    <t>Sorting dropdown is not displayed before searching</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -267,11 +299,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,6 +313,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,6 +322,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,6 +335,13 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -324,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -451,11 +494,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -470,23 +566,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -494,22 +593,178 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -759,7 +1014,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -771,80 +1026,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="14"/>
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="22"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="22"/>
       <c r="K3" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="11" t="s">
         <v>21</v>
       </c>
@@ -854,21 +1109,21 @@
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -877,7 +1132,7 @@
       <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="12"/>
       <c r="F10" s="3">
         <v>1</v>
@@ -885,9 +1140,9 @@
       <c r="G10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -897,47 +1152,47 @@
       <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="12"/>
       <c r="F11" s="3">
         <v>2</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="F12" s="3">
         <v>3</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="F13" s="3">
         <v>4</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -949,24 +1204,24 @@
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="23" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="24" t="s">
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="25"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -979,12 +1234,12 @@
       <c r="D18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="12"/>
       <c r="J18" s="11" t="s">
         <v>25</v>
@@ -1002,12 +1257,12 @@
       <c r="D19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="12"/>
       <c r="G19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="12"/>
       <c r="J19" s="11" t="s">
         <v>21</v>
@@ -1025,12 +1280,12 @@
       <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="12"/>
       <c r="G20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="12"/>
       <c r="J20" s="11" t="s">
         <v>21</v>
@@ -1041,73 +1296,110 @@
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="14" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14" t="s">
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="15"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>5</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="17" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="17" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="18"/>
+      <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>6</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10" t="s">
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="10"/>
+      <c r="K23" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="B18:C18"/>
@@ -1124,46 +1416,9 @@
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="1">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1191,80 +1446,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="14"/>
       <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="22"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="22"/>
       <c r="K3" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="11" t="s">
         <v>21</v>
       </c>
@@ -1274,21 +1529,21 @@
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1297,7 +1552,7 @@
       <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="12"/>
       <c r="F10" s="3">
         <v>1</v>
@@ -1305,9 +1560,9 @@
       <c r="G10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1317,7 +1572,7 @@
       <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="12"/>
       <c r="F11" s="3">
         <v>2</v>
@@ -1325,45 +1580,45 @@
       <c r="G11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="F12" s="3">
         <v>3</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="F13" s="3">
         <v>4</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1375,24 +1630,24 @@
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="23" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="24" t="s">
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="25"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -1405,12 +1660,12 @@
       <c r="D18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="12"/>
       <c r="J18" s="11" t="s">
         <v>25</v>
@@ -1428,12 +1683,12 @@
       <c r="D19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="12"/>
       <c r="G19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="12"/>
       <c r="J19" s="11" t="s">
         <v>21</v>
@@ -1451,12 +1706,12 @@
       <c r="D20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="12"/>
       <c r="G20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="12"/>
       <c r="J20" s="11" t="s">
         <v>21</v>
@@ -1467,53 +1722,98 @@
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="14" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14" t="s">
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="15"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
@@ -1522,6 +1822,395 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:K23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F7:G7">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="1">
+      <formula>LEN(TRIM(F7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C26DA4-5517-4F6A-AA78-39B050F34BCF}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="12"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="12"/>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>4</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
@@ -1530,6 +2219,727 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:K21"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F7:G7">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(F7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC4C9A8-AB4C-44EA-BEEA-5D1F3F61D6B1}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="12"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="12"/>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>4</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F7:G7">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="1">
+      <formula>LEN(TRIM(F7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345DA2F2-E498-464F-A6E2-3C28E7E18A2B}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="12"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="12"/>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="34">
+        <v>2</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="42"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:I18"/>
@@ -1569,7 +2979,7 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1577,365 +2987,320 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C26DA4-5517-4F6A-AA78-39B050F34BCF}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60ECBC65-9B81-4C68-BDC1-B4850B177FC6}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
     <col min="10" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="22"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="22"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="B5" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="11" t="s">
-        <v>64</v>
+      <c r="E7" s="14"/>
+      <c r="F7" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="11" t="s">
-        <v>21</v>
+      <c r="I7" s="14"/>
+      <c r="J7" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="K7" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="12"/>
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="12"/>
       <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>4</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="F13" s="3">
         <v>4</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="23" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="24" t="s">
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="E18" s="15"/>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="H18" s="15"/>
       <c r="I18" s="12"/>
       <c r="J18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="34">
         <v>2</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>4</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="B19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="42"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
+  <mergeCells count="37">
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:I18"/>
@@ -1948,414 +3313,6 @@
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F7:G7">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(F7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC4C9A8-AB4C-44EA-BEEA-5D1F3F61D6B1}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="20"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>3</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>4</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>4</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
